--- a/DhaleshwariFish/data.xlsx
+++ b/DhaleshwariFish/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="23">
   <si>
     <t>Values</t>
   </si>
@@ -61,10 +61,7 @@
     <t>Pb</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>TCR</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>EDI</t>
@@ -73,7 +70,13 @@
     <t>THQ</t>
   </si>
   <si>
+    <t>HI</t>
+  </si>
+  <si>
     <t>CR</t>
+  </si>
+  <si>
+    <t>TCR</t>
   </si>
   <si>
     <t>Child</t>
@@ -465,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -482,10 +485,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -499,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -516,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -533,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -550,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -567,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -584,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -615,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -632,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -649,10 +652,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -666,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -683,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -700,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -717,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -734,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -751,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -768,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -785,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -802,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -819,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -836,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -853,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -870,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -887,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -904,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -921,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -938,10 +941,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -955,10 +958,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -972,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -989,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1006,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1023,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1040,10 +1043,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1057,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1074,10 +1077,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1091,10 +1094,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1108,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1125,10 +1128,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1142,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1159,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1176,10 +1179,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1193,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1210,10 +1213,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1227,10 +1230,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1244,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1261,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1278,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1295,10 +1298,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1312,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1329,10 +1332,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1346,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1363,10 +1366,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1380,10 +1383,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1397,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1414,10 +1417,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1431,10 +1434,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1448,10 +1451,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1465,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1482,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1499,10 +1502,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1516,10 +1519,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1533,10 +1536,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1550,10 +1553,10 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1567,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1584,10 +1587,10 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1601,10 +1604,10 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1618,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1635,10 +1638,10 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,10 +1655,10 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1669,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1686,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1703,10 +1706,10 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1720,10 +1723,10 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1737,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1754,10 +1757,10 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1771,10 +1774,10 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1788,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1805,10 +1808,10 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1822,10 +1825,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1839,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1856,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1873,10 +1876,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1890,10 +1893,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1907,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1924,10 +1927,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1941,10 +1944,10 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1958,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1975,10 +1978,10 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1992,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2009,10 +2012,10 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2026,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2043,10 +2046,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2060,10 +2063,10 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2077,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2094,10 +2097,10 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2111,10 +2114,10 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2128,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2145,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2162,10 +2165,10 @@
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2179,10 +2182,10 @@
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2196,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2213,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2230,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2247,10 +2250,10 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2264,10 +2267,10 @@
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2281,10 +2284,10 @@
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2298,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2315,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2332,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2349,10 +2352,10 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2366,10 +2369,10 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2383,10 +2386,10 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2400,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2417,10 +2420,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2434,10 +2437,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2451,10 +2454,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2468,10 +2471,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2485,10 +2488,10 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2502,10 +2505,10 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2519,10 +2522,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2536,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2553,10 +2556,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2570,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2587,10 +2590,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2604,10 +2607,10 @@
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2621,10 +2624,10 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2638,10 +2641,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2655,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2672,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2689,10 +2692,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2706,10 +2709,10 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2723,10 +2726,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2740,10 +2743,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2757,10 +2760,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2774,10 +2777,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2791,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2808,10 +2811,10 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2825,10 +2828,10 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2842,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2859,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2876,10 +2879,10 @@
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2893,10 +2896,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2910,10 +2913,10 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2927,10 +2930,10 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2944,10 +2947,10 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2961,10 +2964,10 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2978,10 +2981,10 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2995,10 +2998,10 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3012,10 +3015,10 @@
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3029,10 +3032,10 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3046,10 +3049,10 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3063,10 +3066,10 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3080,10 +3083,10 @@
         <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3097,10 +3100,10 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3114,10 +3117,10 @@
         <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3131,10 +3134,10 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3148,10 +3151,10 @@
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3165,10 +3168,10 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3182,10 +3185,10 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3199,10 +3202,10 @@
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3216,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3233,10 +3236,10 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3250,10 +3253,10 @@
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3267,10 +3270,10 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3284,10 +3287,10 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3301,10 +3304,10 @@
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3318,10 +3321,10 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3335,10 +3338,10 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3352,10 +3355,10 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3369,10 +3372,10 @@
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3386,10 +3389,10 @@
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3403,10 +3406,10 @@
         <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3420,10 +3423,10 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3437,10 +3440,10 @@
         <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3451,10 +3454,10 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3468,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3485,10 +3488,10 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3502,10 +3505,10 @@
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3519,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3536,10 +3539,10 @@
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3553,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3570,10 +3573,10 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3584,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3601,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3618,10 +3621,10 @@
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3635,10 +3638,10 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3652,10 +3655,10 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3669,10 +3672,10 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3686,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3703,10 +3706,10 @@
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3720,10 +3723,10 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3737,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3754,10 +3757,10 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3771,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3788,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3805,10 +3808,10 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3822,10 +3825,10 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3839,10 +3842,10 @@
         <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E201" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3856,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3873,10 +3876,10 @@
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E203" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3890,10 +3893,10 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3907,10 +3910,10 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3924,10 +3927,10 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3941,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3958,10 +3961,10 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3975,10 +3978,10 @@
         <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E209" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3992,10 +3995,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4009,10 +4012,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4026,10 +4029,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4043,10 +4046,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4060,10 +4063,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4077,10 +4080,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4094,10 +4097,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4111,10 +4114,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4128,10 +4131,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4145,10 +4148,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4162,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4179,10 +4182,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E221" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4196,10 +4199,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4213,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4230,10 +4233,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4247,10 +4250,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4264,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4281,10 +4284,10 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4298,10 +4301,10 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4315,10 +4318,10 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4332,10 +4335,10 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4349,10 +4352,10 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4366,10 +4369,10 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4383,10 +4386,10 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4400,10 +4403,10 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4417,10 +4420,10 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4434,10 +4437,10 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E236" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4451,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E237" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4468,10 +4471,10 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E238" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4485,10 +4488,10 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E239" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4502,10 +4505,10 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4519,10 +4522,10 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4536,10 +4539,10 @@
         <v>8</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4553,10 +4556,10 @@
         <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4570,10 +4573,10 @@
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E244" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4587,10 +4590,10 @@
         <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E245" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4604,10 +4607,10 @@
         <v>8</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4621,10 +4624,10 @@
         <v>8</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E247" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4638,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4655,10 +4658,10 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E249" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4672,10 +4675,10 @@
         <v>8</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E250" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4689,10 +4692,10 @@
         <v>8</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E251" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4706,10 +4709,10 @@
         <v>8</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E252" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4723,10 +4726,10 @@
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4740,10 +4743,10 @@
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E254" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4757,10 +4760,10 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E255" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4774,10 +4777,10 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E256" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4791,10 +4794,10 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E257" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4808,10 +4811,10 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4825,10 +4828,10 @@
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4842,10 +4845,10 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E260" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4859,10 +4862,10 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4876,10 +4879,10 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E262" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4893,10 +4896,10 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E263" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4910,10 +4913,10 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E264" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4927,10 +4930,10 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4944,10 +4947,10 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E266" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4961,10 +4964,10 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E267" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4978,10 +4981,10 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E268" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4995,10 +4998,10 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5012,10 +5015,10 @@
         <v>9</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5029,10 +5032,10 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5046,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="D272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5063,10 +5066,10 @@
         <v>9</v>
       </c>
       <c r="D273" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5080,10 +5083,10 @@
         <v>10</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E274" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5097,10 +5100,10 @@
         <v>10</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E275" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5114,10 +5117,10 @@
         <v>10</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5131,10 +5134,10 @@
         <v>10</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E277" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5148,10 +5151,10 @@
         <v>10</v>
       </c>
       <c r="D278" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E278" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5165,10 +5168,10 @@
         <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5182,10 +5185,10 @@
         <v>10</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5199,10 +5202,10 @@
         <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E281" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5216,10 +5219,10 @@
         <v>10</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E282" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5233,10 +5236,10 @@
         <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5250,10 +5253,10 @@
         <v>10</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E284" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5267,10 +5270,10 @@
         <v>10</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E285" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5284,10 +5287,10 @@
         <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E286" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5301,10 +5304,10 @@
         <v>10</v>
       </c>
       <c r="D287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E287" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5318,10 +5321,10 @@
         <v>10</v>
       </c>
       <c r="D288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E288" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5335,10 +5338,10 @@
         <v>10</v>
       </c>
       <c r="D289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E289" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5352,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E290" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5369,10 +5372,10 @@
         <v>11</v>
       </c>
       <c r="D291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E291" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5386,10 +5389,10 @@
         <v>11</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5403,10 +5406,10 @@
         <v>11</v>
       </c>
       <c r="D293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5420,10 +5423,10 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5437,10 +5440,10 @@
         <v>11</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5454,10 +5457,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E296" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5471,10 +5474,10 @@
         <v>11</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E297" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5488,10 +5491,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E298" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5505,10 +5508,10 @@
         <v>11</v>
       </c>
       <c r="D299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E299" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5522,10 +5525,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E300" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5539,10 +5542,10 @@
         <v>11</v>
       </c>
       <c r="D301" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5556,10 +5559,10 @@
         <v>11</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E302" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5573,10 +5576,10 @@
         <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E303" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5590,10 +5593,10 @@
         <v>11</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E304" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5607,10 +5610,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5624,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="D306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E306" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5641,10 +5644,10 @@
         <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E307" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5658,10 +5661,10 @@
         <v>12</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E308" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5675,10 +5678,10 @@
         <v>12</v>
       </c>
       <c r="D309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E309" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5692,10 +5695,10 @@
         <v>12</v>
       </c>
       <c r="D310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E310" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5709,10 +5712,10 @@
         <v>12</v>
       </c>
       <c r="D311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E311" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5726,10 +5729,10 @@
         <v>12</v>
       </c>
       <c r="D312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E312" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5743,10 +5746,10 @@
         <v>12</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E313" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5760,10 +5763,10 @@
         <v>12</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E314" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5777,10 +5780,10 @@
         <v>12</v>
       </c>
       <c r="D315" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E315" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5794,10 +5797,10 @@
         <v>12</v>
       </c>
       <c r="D316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E316" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5811,10 +5814,10 @@
         <v>12</v>
       </c>
       <c r="D317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E317" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5828,10 +5831,10 @@
         <v>12</v>
       </c>
       <c r="D318" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E318" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5845,10 +5848,10 @@
         <v>12</v>
       </c>
       <c r="D319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E319" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5862,10 +5865,10 @@
         <v>12</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E320" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5879,10 +5882,10 @@
         <v>12</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E321" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5896,10 +5899,10 @@
         <v>13</v>
       </c>
       <c r="D322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5913,10 +5916,10 @@
         <v>13</v>
       </c>
       <c r="D323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5930,10 +5933,10 @@
         <v>13</v>
       </c>
       <c r="D324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5947,10 +5950,10 @@
         <v>13</v>
       </c>
       <c r="D325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E325" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5964,10 +5967,10 @@
         <v>13</v>
       </c>
       <c r="D326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E326" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5981,10 +5984,10 @@
         <v>13</v>
       </c>
       <c r="D327" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5998,10 +6001,10 @@
         <v>13</v>
       </c>
       <c r="D328" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6015,10 +6018,10 @@
         <v>13</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6032,10 +6035,10 @@
         <v>13</v>
       </c>
       <c r="D330" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E330" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6049,10 +6052,10 @@
         <v>13</v>
       </c>
       <c r="D331" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E331" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6066,10 +6069,10 @@
         <v>13</v>
       </c>
       <c r="D332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E332" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6083,10 +6086,10 @@
         <v>13</v>
       </c>
       <c r="D333" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E333" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6100,10 +6103,10 @@
         <v>13</v>
       </c>
       <c r="D334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E334" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6117,10 +6120,10 @@
         <v>13</v>
       </c>
       <c r="D335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E335" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6134,10 +6137,10 @@
         <v>13</v>
       </c>
       <c r="D336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E336" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6151,10 +6154,10 @@
         <v>13</v>
       </c>
       <c r="D337" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E337" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6168,10 +6171,10 @@
         <v>14</v>
       </c>
       <c r="D338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E338" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6185,10 +6188,10 @@
         <v>14</v>
       </c>
       <c r="D339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E339" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6202,10 +6205,10 @@
         <v>14</v>
       </c>
       <c r="D340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E340" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6219,10 +6222,10 @@
         <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E341" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6236,10 +6239,10 @@
         <v>14</v>
       </c>
       <c r="D342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E342" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6253,10 +6256,10 @@
         <v>14</v>
       </c>
       <c r="D343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E343" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6270,10 +6273,10 @@
         <v>14</v>
       </c>
       <c r="D344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E344" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6287,10 +6290,10 @@
         <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E345" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6304,10 +6307,10 @@
         <v>14</v>
       </c>
       <c r="D346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6321,10 +6324,10 @@
         <v>14</v>
       </c>
       <c r="D347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6338,10 +6341,10 @@
         <v>14</v>
       </c>
       <c r="D348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6355,10 +6358,10 @@
         <v>14</v>
       </c>
       <c r="D349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E349" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6372,10 +6375,10 @@
         <v>14</v>
       </c>
       <c r="D350" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E350" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6389,10 +6392,10 @@
         <v>14</v>
       </c>
       <c r="D351" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E351" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6406,10 +6409,10 @@
         <v>14</v>
       </c>
       <c r="D352" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6423,10 +6426,10 @@
         <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6440,10 +6443,10 @@
         <v>15</v>
       </c>
       <c r="D354" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E354" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6457,10 +6460,10 @@
         <v>15</v>
       </c>
       <c r="D355" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E355" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6474,10 +6477,10 @@
         <v>15</v>
       </c>
       <c r="D356" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E356" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6491,10 +6494,10 @@
         <v>15</v>
       </c>
       <c r="D357" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E357" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6508,10 +6511,10 @@
         <v>15</v>
       </c>
       <c r="D358" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E358" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6525,10 +6528,10 @@
         <v>15</v>
       </c>
       <c r="D359" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6542,10 +6545,10 @@
         <v>15</v>
       </c>
       <c r="D360" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E360" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6559,10 +6562,10 @@
         <v>15</v>
       </c>
       <c r="D361" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E361" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6576,10 +6579,10 @@
         <v>15</v>
       </c>
       <c r="D362" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E362" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6593,10 +6596,10 @@
         <v>15</v>
       </c>
       <c r="D363" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E363" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6610,10 +6613,10 @@
         <v>15</v>
       </c>
       <c r="D364" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E364" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6627,10 +6630,10 @@
         <v>15</v>
       </c>
       <c r="D365" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E365" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6644,10 +6647,10 @@
         <v>15</v>
       </c>
       <c r="D366" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E366" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6661,10 +6664,10 @@
         <v>15</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E367" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6678,10 +6681,10 @@
         <v>15</v>
       </c>
       <c r="D368" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E368" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6695,10 +6698,10 @@
         <v>15</v>
       </c>
       <c r="D369" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E369" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6712,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="E370" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6729,7 +6732,7 @@
         <v>19</v>
       </c>
       <c r="E371" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6746,7 +6749,7 @@
         <v>19</v>
       </c>
       <c r="E372" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6763,7 +6766,7 @@
         <v>19</v>
       </c>
       <c r="E373" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6780,7 +6783,7 @@
         <v>19</v>
       </c>
       <c r="E374" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6797,7 +6800,7 @@
         <v>19</v>
       </c>
       <c r="E375" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6814,7 +6817,7 @@
         <v>19</v>
       </c>
       <c r="E376" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6831,7 +6834,7 @@
         <v>19</v>
       </c>
       <c r="E377" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6845,7 +6848,7 @@
         <v>19</v>
       </c>
       <c r="E378" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6862,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="E379" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6879,7 +6882,7 @@
         <v>19</v>
       </c>
       <c r="E380" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6896,7 +6899,7 @@
         <v>19</v>
       </c>
       <c r="E381" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6913,7 +6916,7 @@
         <v>19</v>
       </c>
       <c r="E382" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6930,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="E383" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6947,7 +6950,7 @@
         <v>19</v>
       </c>
       <c r="E384" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6964,7 +6967,7 @@
         <v>19</v>
       </c>
       <c r="E385" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6981,7 +6984,7 @@
         <v>19</v>
       </c>
       <c r="E386" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6998,7 +7001,7 @@
         <v>19</v>
       </c>
       <c r="E387" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7015,7 +7018,7 @@
         <v>19</v>
       </c>
       <c r="E388" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7032,7 +7035,7 @@
         <v>19</v>
       </c>
       <c r="E389" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7049,7 +7052,7 @@
         <v>19</v>
       </c>
       <c r="E390" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7066,7 +7069,7 @@
         <v>19</v>
       </c>
       <c r="E391" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7083,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="E392" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7100,7 +7103,7 @@
         <v>19</v>
       </c>
       <c r="E393" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7117,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="E394" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7134,7 +7137,7 @@
         <v>19</v>
       </c>
       <c r="E395" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7151,7 +7154,7 @@
         <v>19</v>
       </c>
       <c r="E396" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7168,7 +7171,7 @@
         <v>19</v>
       </c>
       <c r="E397" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7185,7 +7188,7 @@
         <v>19</v>
       </c>
       <c r="E398" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7202,7 +7205,7 @@
         <v>19</v>
       </c>
       <c r="E399" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7219,7 +7222,7 @@
         <v>19</v>
       </c>
       <c r="E400" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7236,7 +7239,7 @@
         <v>19</v>
       </c>
       <c r="E401" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7253,7 +7256,7 @@
         <v>19</v>
       </c>
       <c r="E402" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7270,7 +7273,7 @@
         <v>19</v>
       </c>
       <c r="E403" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7287,7 +7290,7 @@
         <v>19</v>
       </c>
       <c r="E404" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7304,7 +7307,7 @@
         <v>19</v>
       </c>
       <c r="E405" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7321,7 +7324,7 @@
         <v>19</v>
       </c>
       <c r="E406" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7338,7 +7341,7 @@
         <v>19</v>
       </c>
       <c r="E407" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7355,7 +7358,7 @@
         <v>19</v>
       </c>
       <c r="E408" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7372,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="E409" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7389,7 +7392,7 @@
         <v>19</v>
       </c>
       <c r="E410" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7406,7 +7409,7 @@
         <v>19</v>
       </c>
       <c r="E411" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7423,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="E412" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7440,7 +7443,7 @@
         <v>19</v>
       </c>
       <c r="E413" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7457,7 +7460,7 @@
         <v>19</v>
       </c>
       <c r="E414" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7474,7 +7477,7 @@
         <v>19</v>
       </c>
       <c r="E415" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7491,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="E416" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7508,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="E417" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7525,7 +7528,7 @@
         <v>19</v>
       </c>
       <c r="E418" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7542,7 +7545,7 @@
         <v>19</v>
       </c>
       <c r="E419" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7559,7 +7562,7 @@
         <v>19</v>
       </c>
       <c r="E420" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7576,7 +7579,7 @@
         <v>19</v>
       </c>
       <c r="E421" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7593,7 +7596,7 @@
         <v>19</v>
       </c>
       <c r="E422" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7610,7 +7613,7 @@
         <v>19</v>
       </c>
       <c r="E423" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7627,7 +7630,7 @@
         <v>19</v>
       </c>
       <c r="E424" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7644,7 +7647,7 @@
         <v>19</v>
       </c>
       <c r="E425" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7661,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="E426" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7678,7 +7681,7 @@
         <v>19</v>
       </c>
       <c r="E427" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7695,7 +7698,7 @@
         <v>19</v>
       </c>
       <c r="E428" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7712,7 +7715,7 @@
         <v>19</v>
       </c>
       <c r="E429" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7729,7 +7732,7 @@
         <v>19</v>
       </c>
       <c r="E430" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7746,7 +7749,7 @@
         <v>19</v>
       </c>
       <c r="E431" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7763,7 +7766,7 @@
         <v>19</v>
       </c>
       <c r="E432" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7780,7 +7783,7 @@
         <v>19</v>
       </c>
       <c r="E433" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7791,13 +7794,13 @@
         <v>0.00318</v>
       </c>
       <c r="C434" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D434" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E434" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7808,13 +7811,13 @@
         <v>0.0102</v>
       </c>
       <c r="C435" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D435" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E435" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7825,13 +7828,13 @@
         <v>0.0042</v>
       </c>
       <c r="C436" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D436" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E436" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7842,13 +7845,13 @@
         <v>0.00701</v>
       </c>
       <c r="C437" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D437" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E437" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7859,13 +7862,13 @@
         <v>0.00532</v>
       </c>
       <c r="C438" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D438" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E438" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7876,13 +7879,13 @@
         <v>0.00734</v>
       </c>
       <c r="C439" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D439" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E439" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7893,13 +7896,13 @@
         <v>0.00822</v>
       </c>
       <c r="C440" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D440" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E440" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7910,13 +7913,13 @@
         <v>0.0116</v>
       </c>
       <c r="C441" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D441" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E441" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7927,13 +7930,13 @@
         <v>0.00072</v>
       </c>
       <c r="C442" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D442" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E442" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7944,13 +7947,13 @@
         <v>0.00231</v>
       </c>
       <c r="C443" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D443" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E443" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7961,13 +7964,13 @@
         <v>0.0009479999999999999</v>
       </c>
       <c r="C444" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D444" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E444" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7978,13 +7981,13 @@
         <v>0.00159</v>
       </c>
       <c r="C445" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D445" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E445" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7995,13 +7998,13 @@
         <v>0.0012</v>
       </c>
       <c r="C446" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D446" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E446" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8012,13 +8015,13 @@
         <v>0.00166</v>
       </c>
       <c r="C447" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D447" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E447" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8029,13 +8032,13 @@
         <v>0.00186</v>
       </c>
       <c r="C448" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D448" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E448" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8046,13 +8049,13 @@
         <v>0.00262</v>
       </c>
       <c r="C449" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D449" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E449" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
